--- a/规划购买物品清单.xlsx
+++ b/规划购买物品清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1340830edaf0c66a/个人/学业阶段/B本科/本科-毕业设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5AFC009-32A0-4AD7-BA60-E4EB373703D0}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A482AE47-415C-4FF4-9F24-DC3197B8ACA7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.0寸TFT液晶显示屏SPI串口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +275,58 @@
   </si>
   <si>
     <t>202401272155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶晶驰串口屏T14.3寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5rEIOPdba05Em6L?tk=Uuf9W8LrcYl CZ0000 「淘晶驰T1系列4.3寸串口屏IPS全视角tft液晶屏HMI触摸屏tft显示屏」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶晶驰串口屏X5-10.1寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X5-10.1寸电阻触摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1-4.3寸电阻触摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5sdM6KuLke7JtPQ?tk=pyghW8LJKjd CZ0001 「X5系列淘晶驰10.1寸触摸屏 高清串口显示屏 HMI触摸屏 支持音视频」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5065-320kv有感无刷直流电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5sWdzUG7bvV0BkN?tk=yhH1W8pfbVf CZ0001 「5065-320KV有感无感无刷大功率直流减速电机四轮遥控滑板调速马达」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,16 +876,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB403"/>
+  <dimension ref="A1:AB402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="7"/>
     <col min="4" max="4" width="54.109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.109375" style="7" customWidth="1"/>
@@ -899,7 +943,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -924,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -976,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1024,9 +1068,7 @@
     </row>
     <row r="5" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>338</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J12" si="0">H5*I5</f>
+        <f t="shared" ref="J5:J13" si="0">H5*I5</f>
         <v>338</v>
       </c>
       <c r="K5" s="4"/>
@@ -1120,9 +1162,7 @@
     </row>
     <row r="7" spans="1:28" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1167,33 +1207,33 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1216,33 +1256,31 @@
     </row>
     <row r="9" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1265,33 +1303,30 @@
     </row>
     <row r="10" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1314,33 +1349,31 @@
     </row>
     <row r="11" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>119</v>
+        <v>56.5</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>56.5</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1363,31 +1396,33 @@
     </row>
     <row r="12" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>56.5</v>
+        <v>43</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>43</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1408,17 +1443,34 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>241</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1709,7 +1761,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1739,17 +1791,21 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1769,26 +1825,30 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>41</v>
+      <c r="H25" s="3">
+        <f>SUM(H4:H22)</f>
+        <v>10</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>27</v>
+      <c r="J25" s="3">
+        <f>SUM(J4:J23)</f>
+        <v>1984.5</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -1802,31 +1862,42 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <f>SUM(H4:H23)</f>
-        <v>9</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <f>SUM(J4:J24)</f>
-        <v>1795.5</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+    <row r="26" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>520</v>
+      </c>
+      <c r="J26" s="4">
+        <f>H26*I26</f>
+        <v>520</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -1840,37 +1911,33 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
+    <row r="27" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5065</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="H27" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
-        <v>520</v>
+        <v>154</v>
       </c>
       <c r="J27" s="4">
-        <f>H27*I27</f>
-        <v>520</v>
+        <f t="shared" ref="J27:J46" si="1">H27*I27</f>
+        <v>924</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1891,19 +1958,33 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>95</v>
+      </c>
       <c r="J28" s="4">
-        <f t="shared" ref="J28:J47" si="1">H28*I28</f>
-        <v>0</v>
+        <f>H28*I28</f>
+        <v>95</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2486,7 +2567,7 @@
       <c r="AB45" s="4"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2519,20 +2600,21 @@
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="4"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -2552,19 +2634,23 @@
       <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>41</v>
+      <c r="H48" s="3">
+        <f>SUM(H26:H46)</f>
+        <v>8</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
-        <v>27</v>
+      <c r="J48" s="3">
+        <f>SUM(J26:J46)</f>
+        <v>1539</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
@@ -2585,26 +2671,39 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f>SUM(H27:H47)</f>
+    <row r="49" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3">
-        <f>SUM(J27:J47)</f>
-        <v>520</v>
-      </c>
-      <c r="K49" s="3"/>
+      <c r="I49" s="4">
+        <v>29</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" ref="J49:J69" si="2">H49*I49</f>
+        <v>29</v>
+      </c>
+      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -2624,17 +2723,15 @@
       <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="A50" s="20"/>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>42</v>
@@ -2643,17 +2740,17 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50" s="4">
         <v>1</v>
       </c>
       <c r="I50" s="4">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" ref="J50:J70" si="2">H50*I50</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2674,35 +2771,19 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>45</v>
-      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -3285,7 +3366,7 @@
       <c r="AB68" s="4"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3318,20 +3399,21 @@
       <c r="AB69" s="4"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3358,12 +3440,14 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>41</v>
+      <c r="H71" s="3">
+        <f>SUM(H49:H69)</f>
+        <v>2</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="3" t="s">
-        <v>27</v>
+      <c r="J71" s="3">
+        <f>SUM(J49:J69)</f>
+        <v>74</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="4"/>
@@ -3385,23 +3469,17 @@
       <c r="AB71" s="4"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3">
-        <f>SUM(H50:H70)</f>
-        <v>2</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
-        <f>SUM(J50:J70)</f>
-        <v>74</v>
-      </c>
-      <c r="K72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -3421,17 +3499,21 @@
       <c r="AB72" s="4"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="2"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3458,12 +3540,14 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>26</v>
+      <c r="H74" s="2">
+        <f>H71+H48+H25</f>
+        <v>20</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>27</v>
+      <c r="J74" s="2">
+        <f>J71+J48+J25</f>
+        <v>3597.5</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
@@ -3485,23 +3569,17 @@
       <c r="AB74" s="4"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2">
-        <f>H72+H49+H26</f>
-        <v>12</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2">
-        <f>J72+J49+J26</f>
-        <v>2389.5</v>
-      </c>
-      <c r="K75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -13330,42 +13408,12 @@
       <c r="AA402" s="4"/>
       <c r="AB402" s="4"/>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="4"/>
-      <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
-      <c r="J403" s="4"/>
-      <c r="K403" s="4"/>
-      <c r="L403" s="4"/>
-      <c r="M403" s="4"/>
-      <c r="N403" s="4"/>
-      <c r="O403" s="4"/>
-      <c r="P403" s="4"/>
-      <c r="Q403" s="4"/>
-      <c r="R403" s="4"/>
-      <c r="S403" s="4"/>
-      <c r="T403" s="4"/>
-      <c r="U403" s="4"/>
-      <c r="V403" s="4"/>
-      <c r="W403" s="4"/>
-      <c r="X403" s="4"/>
-      <c r="Y403" s="4"/>
-      <c r="Z403" s="4"/>
-      <c r="AA403" s="4"/>
-      <c r="AB403" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="A50:A70"/>
+    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="A49:A69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13373,14 +13421,17 @@
     <hyperlink ref="G5" r:id="rId2" xr:uid="{66EB1171-42D5-40E5-9A52-78D36B6516A5}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{AE66B25A-40C1-4ED6-91F6-4E97F68AF44C}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{95301755-7C24-4C40-80C6-B40D9D80D797}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
-    <hyperlink ref="G50" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
-    <hyperlink ref="G51" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
-    <hyperlink ref="G27" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{397CBE0A-83BD-4A5A-B058-53AC9F77C6F0}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{DD2417E5-0BC1-42E0-98E8-2EADCCED25F1}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{66D48FA4-4CD4-4AA4-912F-2B1330EFB2B6}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{574D811F-5BF4-4B9E-8D93-ECC47A639435}"/>
+    <hyperlink ref="G28" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
+    <hyperlink ref="G50" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
+    <hyperlink ref="G26" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{397CBE0A-83BD-4A5A-B058-53AC9F77C6F0}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{DD2417E5-0BC1-42E0-98E8-2EADCCED25F1}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{66D48FA4-4CD4-4AA4-912F-2B1330EFB2B6}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{574D811F-5BF4-4B9E-8D93-ECC47A639435}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{DD5515A6-BA07-4ED4-9316-FC6146B1A2EC}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{C24AF046-6E63-4A3A-ADC3-FB3E48877A04}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/规划购买物品清单.xlsx
+++ b/规划购买物品清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1340830edaf0c66a/个人/学业阶段/B本科/本科-毕业设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A482AE47-415C-4FF4-9F24-DC3197B8ACA7}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAE3515-1D2D-4061-AE78-31597BC6AFA7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,46 @@
   </si>
   <si>
     <t>https://m.tb.cn/h.5sWdzUG7bvV0BkN?tk=yhH1W8pfbVf CZ0001 「5065-320KV有感无感无刷大功率直流减速电机四轮遥控滑板调速马达」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5665M内转子无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5665M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5siwf7WFewdej7e?tk=FWqgW8wqEnG CZ0000 「赛车游戏 B5665M 内转子无刷电机 DC24V 3600转 带主动散热风扇」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如强磁拆机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5ILcqkBR3QIzFJA?tk=lDPnW8wBjKT CZ0000 「空心杯转子钕强磁无刷电机 12-24V大扭矩静音大功率密封无刷电机」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1533,9 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1523,7 +1565,9 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2005,19 +2049,33 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4">
+        <v>36.799999999999997</v>
+      </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>220.79999999999998</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2038,19 +2096,33 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45</v>
+      </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2645,12 +2717,12 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3">
         <f>SUM(H26:H46)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3">
         <f>SUM(J26:J46)</f>
-        <v>1539</v>
+        <v>2029.8</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
@@ -3542,12 +3614,12 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2">
         <f>H71+H48+H25</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2">
         <f>J71+J48+J25</f>
-        <v>3597.5</v>
+        <v>4088.3</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
@@ -13432,6 +13504,8 @@
     <hyperlink ref="G12" r:id="rId13" xr:uid="{DD5515A6-BA07-4ED4-9316-FC6146B1A2EC}"/>
     <hyperlink ref="G13" r:id="rId14" xr:uid="{C24AF046-6E63-4A3A-ADC3-FB3E48877A04}"/>
     <hyperlink ref="G27" r:id="rId15" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
+    <hyperlink ref="G29" r:id="rId16" xr:uid="{2C51534F-AB87-473C-A810-A81CDE76E254}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{1D443877-10E9-4F0E-A8F3-9DFD460FAF42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/规划购买物品清单.xlsx
+++ b/规划购买物品清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1340830edaf0c66a/个人/学业阶段/B本科/本科-毕业设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAE3515-1D2D-4061-AE78-31597BC6AFA7}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53C41C3-4064-4166-9BDE-021BF481162F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,14 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无刷电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如强磁拆机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.tb.cn/h.5ILcqkBR3QIzFJA?tk=lDPnW8wBjKT CZ0000 「空心杯转子钕强磁无刷电机 12-24V大扭矩静音大功率密封无刷电机」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,7 +358,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供电</t>
+    <t>奥比中光大白PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5IJf5qT?tk=CiDFWjjrcTY CZ3456 「快来捡漏【全新奥比中光大白pro深度相机DaBai 3D双目结构光深度】」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V5000mah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E326S大容量电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E327S大容量电池</t>
+  </si>
+  <si>
+    <t>24V6100mah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5szotgjRpqZJSQA?tk=VCCnWjjsZNx CZ3452 「24V 6100mah磷酸铁锂电池10000mah锂电池组防过充过放保护A品电芯」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5szMvq20eVcioYR?tk=ABDxWjjro8Y CA6496 「E326S带保护外壳12V智能小车机器人18650锂电池组2600mah E318S」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀土磁三相内转子57无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5I2HBYvbfIyoIdH?tk=Abu5WjjzSQZ CZ3458 「稀土磁三相内转子57无刷电机  24V-60V带霍尔低速无刷电机DIY发电」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心杯转子铷强磁无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74mm×45.5mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -561,12 +604,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,6 +689,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB402"/>
+  <dimension ref="A1:AB404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1197,7 @@
         <v>338</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J13" si="0">H5*I5</f>
+        <f t="shared" ref="J5:J16" si="0">H5*I5</f>
         <v>338</v>
       </c>
       <c r="K5" s="4"/>
@@ -1250,30 +1316,30 @@
     <row r="8" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
         <v>195</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="22">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1298,29 +1364,29 @@
       <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1343,30 +1409,31 @@
     </row>
     <row r="10" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1391,29 +1458,29 @@
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>56.5</v>
+        <v>371</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>371</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1436,33 +1503,30 @@
     </row>
     <row r="12" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1486,30 +1550,30 @@
     <row r="13" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>241</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="G13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>56.5</v>
+      </c>
+      <c r="J13" s="22">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1530,19 +1594,36 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1562,19 +1643,34 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>241</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1594,17 +1690,34 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>280</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1805,7 +1918,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1835,21 +1948,17 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="3"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1869,30 +1978,22 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <f>SUM(H4:H22)</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <f>SUM(J4:J23)</f>
-        <v>1984.5</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -1906,37 +2007,22 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>520</v>
-      </c>
-      <c r="J26" s="4">
-        <f>H26*I26</f>
-        <v>520</v>
-      </c>
-      <c r="K26" s="4"/>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1955,40 +2041,31 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5065</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="4">
-        <v>6</v>
-      </c>
-      <c r="I27" s="4">
-        <v>154</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" ref="J27:J46" si="1">H27*I27</f>
-        <v>924</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f>SUM(H4:H24)</f>
+        <v>11</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f>SUM(J4:J25)</f>
+        <v>2432</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -2003,32 +2080,34 @@
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="4">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="J28" s="4">
         <f>H28*I28</f>
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2053,29 +2132,29 @@
       <c r="A29" s="17"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5065</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H29" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>36.799999999999997</v>
+        <v>154</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>220.79999999999998</v>
+        <f t="shared" ref="J29:J48" si="1">H29*I29</f>
+        <v>0</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2096,33 +2175,33 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H30" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="1"/>
-        <v>270</v>
+        <f>H30*I30</f>
+        <v>95</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2143,16 +2222,30 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>36.799999999999997</v>
+      </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2176,19 +2269,33 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45</v>
+      </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2209,19 +2316,33 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="4">
+        <v>57</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>38</v>
+      </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2639,7 +2760,7 @@
       <c r="AB45" s="4"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2672,21 +2793,20 @@
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="3"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -2706,25 +2826,20 @@
       <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <f>SUM(H26:H46)</f>
-        <v>20</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3">
-        <f>SUM(J26:J46)</f>
-        <v>2029.8</v>
-      </c>
-      <c r="K48" s="3"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -2743,39 +2858,22 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
-        <v>29</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" ref="J49:J69" si="2">H49*I49</f>
-        <v>29</v>
-      </c>
-      <c r="K49" s="4"/>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="3"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -2794,37 +2892,26 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>45</v>
-      </c>
-      <c r="J50" s="4">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K50" s="4"/>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <f>SUM(H28:H48)</f>
+        <v>8</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <f>SUM(J28:J48)</f>
+        <v>871</v>
+      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -2843,19 +2930,37 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+    <row r="51" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>29</v>
+      </c>
       <c r="J51" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="J51:J71" si="2">H51*I51</f>
+        <v>29</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2876,19 +2981,35 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>45</v>
+      </c>
       <c r="J52" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -3438,7 +3559,7 @@
       <c r="AB68" s="4"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3471,21 +3592,20 @@
       <c r="AB69" s="4"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" s="3"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3505,23 +3625,20 @@
       <c r="AB70" s="4"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3">
-        <f>SUM(H49:H69)</f>
-        <v>2</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3">
-        <f>SUM(J49:J69)</f>
-        <v>74</v>
-      </c>
-      <c r="K71" s="3"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -3541,17 +3658,21 @@
       <c r="AB71" s="4"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -3571,21 +3692,23 @@
       <c r="AB72" s="4"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3">
+        <f>SUM(H51:H71)</f>
+        <v>2</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <f>SUM(J51:J71)</f>
+        <v>74</v>
+      </c>
+      <c r="K73" s="3"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3605,23 +3728,17 @@
       <c r="AB73" s="4"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2">
-        <f>H71+H48+H25</f>
-        <v>32</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2">
-        <f>J71+J48+J25</f>
-        <v>4088.3</v>
-      </c>
-      <c r="K74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -3641,17 +3758,21 @@
       <c r="AB74" s="4"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="2"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -3671,17 +3792,23 @@
       <c r="AB75" s="4"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <f>H73+H50+H27</f>
+        <v>21</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
+        <f>J73+J50+J27</f>
+        <v>3377</v>
+      </c>
+      <c r="K76" s="2"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -13480,12 +13607,72 @@
       <c r="AA402" s="4"/>
       <c r="AB402" s="4"/>
     </row>
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
+      <c r="I403" s="4"/>
+      <c r="J403" s="4"/>
+      <c r="K403" s="4"/>
+      <c r="L403" s="4"/>
+      <c r="M403" s="4"/>
+      <c r="N403" s="4"/>
+      <c r="O403" s="4"/>
+      <c r="P403" s="4"/>
+      <c r="Q403" s="4"/>
+      <c r="R403" s="4"/>
+      <c r="S403" s="4"/>
+      <c r="T403" s="4"/>
+      <c r="U403" s="4"/>
+      <c r="V403" s="4"/>
+      <c r="W403" s="4"/>
+      <c r="X403" s="4"/>
+      <c r="Y403" s="4"/>
+      <c r="Z403" s="4"/>
+      <c r="AA403" s="4"/>
+      <c r="AB403" s="4"/>
+    </row>
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
+      <c r="I404" s="4"/>
+      <c r="J404" s="4"/>
+      <c r="K404" s="4"/>
+      <c r="L404" s="4"/>
+      <c r="M404" s="4"/>
+      <c r="N404" s="4"/>
+      <c r="O404" s="4"/>
+      <c r="P404" s="4"/>
+      <c r="Q404" s="4"/>
+      <c r="R404" s="4"/>
+      <c r="S404" s="4"/>
+      <c r="T404" s="4"/>
+      <c r="U404" s="4"/>
+      <c r="V404" s="4"/>
+      <c r="W404" s="4"/>
+      <c r="X404" s="4"/>
+      <c r="Y404" s="4"/>
+      <c r="Z404" s="4"/>
+      <c r="AA404" s="4"/>
+      <c r="AB404" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:A23"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="A49:A69"/>
+    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A51:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13493,19 +13680,23 @@
     <hyperlink ref="G5" r:id="rId2" xr:uid="{66EB1171-42D5-40E5-9A52-78D36B6516A5}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{AE66B25A-40C1-4ED6-91F6-4E97F68AF44C}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{95301755-7C24-4C40-80C6-B40D9D80D797}"/>
-    <hyperlink ref="G28" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
-    <hyperlink ref="G49" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
-    <hyperlink ref="G50" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
-    <hyperlink ref="G26" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
+    <hyperlink ref="G30" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
+    <hyperlink ref="G51" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
+    <hyperlink ref="G52" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
     <hyperlink ref="G8" r:id="rId9" xr:uid="{397CBE0A-83BD-4A5A-B058-53AC9F77C6F0}"/>
-    <hyperlink ref="G9" r:id="rId10" xr:uid="{DD2417E5-0BC1-42E0-98E8-2EADCCED25F1}"/>
-    <hyperlink ref="G10" r:id="rId11" xr:uid="{66D48FA4-4CD4-4AA4-912F-2B1330EFB2B6}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{574D811F-5BF4-4B9E-8D93-ECC47A639435}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{DD5515A6-BA07-4ED4-9316-FC6146B1A2EC}"/>
-    <hyperlink ref="G13" r:id="rId14" xr:uid="{C24AF046-6E63-4A3A-ADC3-FB3E48877A04}"/>
-    <hyperlink ref="G27" r:id="rId15" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
-    <hyperlink ref="G29" r:id="rId16" xr:uid="{2C51534F-AB87-473C-A810-A81CDE76E254}"/>
-    <hyperlink ref="G30" r:id="rId17" xr:uid="{1D443877-10E9-4F0E-A8F3-9DFD460FAF42}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{DD2417E5-0BC1-42E0-98E8-2EADCCED25F1}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{66D48FA4-4CD4-4AA4-912F-2B1330EFB2B6}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{574D811F-5BF4-4B9E-8D93-ECC47A639435}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{DD5515A6-BA07-4ED4-9316-FC6146B1A2EC}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{C24AF046-6E63-4A3A-ADC3-FB3E48877A04}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
+    <hyperlink ref="G31" r:id="rId16" xr:uid="{2C51534F-AB87-473C-A810-A81CDE76E254}"/>
+    <hyperlink ref="G32" r:id="rId17" xr:uid="{1D443877-10E9-4F0E-A8F3-9DFD460FAF42}"/>
+    <hyperlink ref="G16" r:id="rId18" xr:uid="{E87523C4-2534-43F0-9A61-AC589A88EA04}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{F68A288F-C1A4-4C16-9422-759CC360A207}"/>
+    <hyperlink ref="G10" r:id="rId20" xr:uid="{DDBAC948-13BF-424E-B8EC-C4C3F95DD8FC}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{FA18D8CE-45B4-4433-9982-61A5ECBA74BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/规划购买物品清单.xlsx
+++ b/规划购买物品清单.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1340830edaf0c66a/个人阶段/B本科/本科-毕业设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B9E6897-97D1-4D06-A221-AA6764423618}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="11_AD4DA82427541F7ACA7EB8C7F088061A6AE8DE1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535B5F9A-AD97-44BD-BFCD-6416E431C76C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Sheet1!$P$4</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Sheet1!$P$5</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Sheet1!$P$4</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Sheet1!$P$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +442,22 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>联轴器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱紧式联轴器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.5GswZzrbuvSMmMQ?tk=wE7eWPDsA2h HU9196 「抱紧式联轴器外径28mm可选孔径5 6 8mm56.8mm可选孔径6 8 10 12mm」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +509,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,27 +690,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,15 +697,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +747,51 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -765,6 +808,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,16 +1077,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE364"/>
+  <dimension ref="A1:AE371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12" style="20" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="5"/>
     <col min="4" max="4" width="54.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="21.109375" style="5" customWidth="1"/>
@@ -1050,136 +1097,136 @@
     <col min="10" max="11" width="5.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="7.109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="5.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="35.5546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="3"/>
@@ -1201,44 +1248,44 @@
       <c r="AE4" s="3"/>
     </row>
     <row r="5" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="8">
         <v>358</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="8">
         <v>20</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="8">
         <f>H5*J5+K5</f>
         <v>378</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="8">
         <f>I5*J5</f>
         <v>358</v>
       </c>
@@ -1262,39 +1309,39 @@
       <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="8">
         <v>0</v>
       </c>
       <c r="N6" s="3"/>
@@ -1317,8 +1364,8 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1417,8 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1425,8 +1472,8 @@
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1478,8 +1525,8 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1531,8 +1578,8 @@
       <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1584,8 +1631,8 @@
       <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1684,7 @@
       <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="33"/>
       <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1689,8 +1736,8 @@
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1742,8 +1789,8 @@
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1795,8 +1842,8 @@
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
@@ -1848,28 +1895,28 @@
       <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1889,34 +1936,32 @@
       <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17">
+      <c r="A18" s="10"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <f>SUM(H5:H16)</f>
         <v>2</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="10">
         <f>SUM(I5:I16)</f>
         <v>12</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10">
         <f>SUM(L5:L17)</f>
         <v>378</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="10">
         <f>SUM(M5:M16)</f>
         <v>2452</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1937,41 +1982,47 @@
     </row>
     <row r="19" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="3">
-        <v>520</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1">
-        <f>H19*J19+K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <f>I19*J19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1991,13 +2042,15 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>37</v>
@@ -2013,11 +2066,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>690</v>
+        <v>520</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L26" si="2">H20*J20+K20</f>
+        <f>H20*J20+K20</f>
         <v>0</v>
       </c>
       <c r="M20" s="3">
@@ -2043,32 +2096,34 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L21:L28" si="2">H21*J21+K21</f>
         <v>0</v>
       </c>
       <c r="M21" s="3">
@@ -2095,29 +2150,27 @@
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5065</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="1">
@@ -2125,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" ref="M22:M26" si="3">I22*J22</f>
+        <f>I22*J22</f>
         <v>0</v>
       </c>
       <c r="N22" s="3"/>
@@ -2147,30 +2200,30 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5065</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1">
@@ -2178,8 +2231,8 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <f>I23*J23</f>
-        <v>95</v>
+        <f t="shared" ref="M23:M28" si="3">I23*J23</f>
+        <v>0</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2200,39 +2253,37 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="29"/>
+    <row r="24" spans="1:31" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="3">
-        <v>36.799999999999997</v>
+        <v>54</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1">
-        <f t="shared" si="2"/>
+        <f>H24*J24+K24</f>
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2253,47 +2304,41 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="36">
-        <v>2</v>
-      </c>
-      <c r="I25" s="35">
-        <v>6</v>
-      </c>
-      <c r="J25" s="35">
-        <v>45</v>
-      </c>
-      <c r="K25" s="35">
-        <v>7</v>
-      </c>
-      <c r="L25" s="35">
+    <row r="25" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>95</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="M25" s="35">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="N25" s="35"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f>I25*J25</f>
+        <v>95</v>
+      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2313,29 +2358,29 @@
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>38</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1">
@@ -2344,7 +2389,7 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2365,29 +2410,47 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="17"/>
+    <row r="27" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>6</v>
+      </c>
+      <c r="J27" s="25">
+        <v>45</v>
+      </c>
+      <c r="K27" s="25">
+        <v>7</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="N27" s="25"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2406,35 +2469,41 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17">
-        <f>SUM(H19:H26)</f>
+    <row r="28" spans="1:31" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3">
+        <v>57</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="17">
-        <f>SUM(I19:I26)</f>
-        <v>9</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17">
-        <f>SUM(L19:L26)</f>
-        <v>97</v>
-      </c>
-      <c r="M28" s="17">
-        <f>SUM(M19:M26)</f>
-        <v>441</v>
-      </c>
-      <c r="N28" s="17"/>
+      <c r="J28" s="3">
+        <v>38</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2453,44 +2522,29 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="15">
-        <v>1</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" ref="L29:L31" si="4">H29*J29+K29</f>
-        <v>4.5</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="10"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2509,41 +2563,33 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>29</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" ref="M30:M31" si="5">I30*J30</f>
-        <v>29</v>
-      </c>
-      <c r="N30" s="3"/>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
+        <f>SUM(H20:H28)</f>
+        <v>2</v>
+      </c>
+      <c r="I30" s="10">
+        <f>SUM(I20:I28)</f>
+        <v>15</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10">
+        <f>SUM(L20:L28)</f>
+        <v>97</v>
+      </c>
+      <c r="M30" s="10">
+        <f>SUM(M20:M28)</f>
+        <v>765</v>
+      </c>
+      <c r="N30" s="10"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2563,40 +2609,48 @@
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="3">
+      <c r="A31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="3">
-        <v>45</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="N31" s="3"/>
+      <c r="F31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -2615,29 +2669,44 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="17"/>
+    <row r="32" spans="1:31" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" ref="L32:L34" si="4">H32*J32+K32</f>
+        <v>4.5</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2656,33 +2725,41 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17">
-        <f>SUM(H29:H31)</f>
+    <row r="33" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="17">
-        <f>SUM(I30:I31)</f>
-        <v>2</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17">
-        <f>SUM(L29:L31)</f>
-        <v>4.5</v>
-      </c>
-      <c r="M33" s="17">
-        <f>SUM(M30:M31)</f>
-        <v>74</v>
-      </c>
-      <c r="N33" s="17"/>
+      <c r="J33" s="3">
+        <v>29</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" ref="M33:M34" si="5">I33*J33</f>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2701,20 +2778,40 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+    <row r="34" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>45</v>
+      </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2735,28 +2832,28 @@
       <c r="AE34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2" t="s">
+      <c r="I35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -2776,29 +2873,32 @@
       <c r="AE35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <f>I33+I28+I18</f>
-        <v>23</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <f>L33+L28+L18</f>
-        <v>479.5</v>
-      </c>
-      <c r="M36" s="2">
-        <f>M33+M28+M18</f>
-        <v>2967</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
+        <f>SUM(H32:H34)</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <f>SUM(I33:I34)</f>
+        <v>2</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10">
+        <f>SUM(L32:L34)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M36" s="10">
+        <f>SUM(M33:M34)</f>
+        <v>74</v>
+      </c>
+      <c r="N36" s="10"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2817,21 +2917,49 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+    <row r="37" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2850,153 +2978,163 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
+    <row r="38" spans="1:31" s="28" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="1:31" s="28" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="1:31" s="28" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3016,20 +3154,29 @@
       <c r="AE42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <f>I36+I30+I18</f>
+        <v>29</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2">
+        <f>L36+L30+L18</f>
+        <v>479.5</v>
+      </c>
+      <c r="M43" s="2">
+        <f>M36+M30+M18</f>
+        <v>3291</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3050,7 +3197,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="29"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3083,7 +3230,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3116,7 +3263,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3149,7 +3296,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="29"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3182,7 +3329,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="29"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3215,7 +3362,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3248,7 +3395,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3281,7 +3428,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="29"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3314,7 +3461,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="29"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3347,7 +3494,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="29"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3380,7 +3527,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="29"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3413,7 +3560,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3446,7 +3593,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="29"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3479,7 +3626,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="29"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3512,7 +3659,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="29"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3545,7 +3692,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="29"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3578,7 +3725,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="29"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3611,7 +3758,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3644,7 +3791,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="29"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3677,7 +3824,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3710,7 +3857,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="29"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3743,7 +3890,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="29"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3776,7 +3923,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3809,7 +3956,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="29"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3842,7 +3989,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="29"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3875,7 +4022,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="29"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3908,7 +4055,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="29"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3941,7 +4088,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="29"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3974,7 +4121,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="29"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4007,7 +4154,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="29"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4040,7 +4187,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="29"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4073,7 +4220,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="29"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4106,7 +4253,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="29"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4139,7 +4286,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="29"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4172,7 +4319,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4205,7 +4352,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="29"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4238,7 +4385,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="29"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4271,7 +4418,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="29"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4304,7 +4451,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="29"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4337,7 +4484,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4370,7 +4517,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="29"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4403,7 +4550,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="29"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4436,7 +4583,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4469,7 +4616,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="29"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4502,7 +4649,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="29"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4535,7 +4682,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="29"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4568,7 +4715,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="29"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4601,7 +4748,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4634,7 +4781,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="29"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4667,7 +4814,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4700,7 +4847,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="29"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4733,7 +4880,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4766,7 +4913,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="29"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4799,7 +4946,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="29"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4832,7 +4979,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="29"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4865,7 +5012,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="29"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4898,7 +5045,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="29"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4931,7 +5078,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="29"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4964,7 +5111,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="29"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4997,7 +5144,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="29"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5030,7 +5177,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="29"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5063,7 +5210,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="29"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5096,7 +5243,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="29"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5129,7 +5276,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="29"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5162,7 +5309,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="29"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5195,7 +5342,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="29"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5228,7 +5375,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="29"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5261,7 +5408,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="29"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5294,7 +5441,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="29"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5327,7 +5474,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="B113" s="29"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5360,7 +5507,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5393,7 +5540,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="B115" s="29"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5426,7 +5573,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="29"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5459,7 +5606,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="29"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5492,7 +5639,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="29"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5525,7 +5672,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="29"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5558,7 +5705,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="29"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5591,7 +5738,7 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="29"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5624,7 +5771,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="29"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5657,7 +5804,7 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="B123" s="29"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5690,7 +5837,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="29"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5723,7 +5870,7 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="29"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5756,7 +5903,7 @@
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="29"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5789,7 +5936,7 @@
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="B127" s="29"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5822,7 +5969,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="29"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5855,7 +6002,7 @@
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-      <c r="B129" s="29"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5888,7 +6035,7 @@
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="29"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5921,7 +6068,7 @@
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="29"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5954,7 +6101,7 @@
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="29"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5987,7 +6134,7 @@
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="29"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6020,7 +6167,7 @@
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="29"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6053,7 +6200,7 @@
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="B135" s="29"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6086,7 +6233,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="29"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6119,7 +6266,7 @@
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="29"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6152,7 +6299,7 @@
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="29"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6185,7 +6332,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="B139" s="29"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6218,7 +6365,7 @@
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="29"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6251,7 +6398,7 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="29"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6284,7 +6431,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="29"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6317,7 +6464,7 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="29"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6350,7 +6497,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="29"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6383,7 +6530,7 @@
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="B145" s="29"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6416,7 +6563,7 @@
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="29"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6449,7 +6596,7 @@
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="29"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6482,7 +6629,7 @@
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="29"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6515,7 +6662,7 @@
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="29"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6548,7 +6695,7 @@
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="29"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6581,7 +6728,7 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="29"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6614,7 +6761,7 @@
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="B152" s="29"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6647,7 +6794,7 @@
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="29"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6680,7 +6827,7 @@
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="29"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6713,7 +6860,7 @@
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="B155" s="29"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6746,7 +6893,7 @@
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="29"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6779,7 +6926,7 @@
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="B157" s="29"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6812,7 +6959,7 @@
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="29"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6845,7 +6992,7 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="29"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6878,7 +7025,7 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="29"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6911,7 +7058,7 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="29"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6944,7 +7091,7 @@
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="29"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6977,7 +7124,7 @@
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="B163" s="29"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7010,7 +7157,7 @@
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="B164" s="29"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7043,7 +7190,7 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="29"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7076,7 +7223,7 @@
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="29"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7109,7 +7256,7 @@
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="B167" s="29"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7142,7 +7289,7 @@
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="B168" s="29"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7175,7 +7322,7 @@
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="B169" s="29"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7208,7 +7355,7 @@
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="29"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7241,7 +7388,7 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="29"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7274,7 +7421,7 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="29"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7307,7 +7454,7 @@
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="29"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7340,7 +7487,7 @@
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="B174" s="29"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7373,7 +7520,7 @@
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="29"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7406,7 +7553,7 @@
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="29"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7439,7 +7586,7 @@
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="B177" s="29"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7472,7 +7619,7 @@
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="29"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7505,7 +7652,7 @@
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="29"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7538,7 +7685,7 @@
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="B180" s="29"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7571,7 +7718,7 @@
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="29"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7604,7 +7751,7 @@
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="29"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7637,7 +7784,7 @@
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="29"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7670,7 +7817,7 @@
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="B184" s="29"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7703,7 +7850,7 @@
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="29"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7736,7 +7883,7 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="29"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7769,7 +7916,7 @@
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-      <c r="B187" s="29"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7802,7 +7949,7 @@
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="29"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7835,7 +7982,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="29"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7868,7 +8015,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="29"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7901,7 +8048,7 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="29"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7934,7 +8081,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="29"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7967,7 +8114,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="B193" s="29"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8000,7 +8147,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="29"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8033,7 +8180,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="29"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8066,7 +8213,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="29"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8099,7 +8246,7 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="29"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8132,7 +8279,7 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-      <c r="B198" s="29"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8165,7 +8312,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="B199" s="29"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8198,7 +8345,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="B200" s="29"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8231,7 +8378,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-      <c r="B201" s="29"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8264,7 +8411,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="29"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8297,7 +8444,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-      <c r="B203" s="29"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8330,7 +8477,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8363,7 +8510,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8396,7 +8543,7 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8429,7 +8576,7 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8462,7 +8609,7 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-      <c r="B208" s="29"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8495,7 +8642,7 @@
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="B209" s="29"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8528,7 +8675,7 @@
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8561,7 +8708,7 @@
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="B211" s="29"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8594,7 +8741,7 @@
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="29"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8627,7 +8774,7 @@
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="B213" s="29"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8660,7 +8807,7 @@
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="29"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8693,7 +8840,7 @@
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="B215" s="29"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8726,7 +8873,7 @@
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="B216" s="29"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8759,7 +8906,7 @@
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="B217" s="29"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8792,7 +8939,7 @@
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="B218" s="29"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8825,7 +8972,7 @@
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="B219" s="29"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8858,7 +9005,7 @@
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="B220" s="29"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8891,7 +9038,7 @@
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="B221" s="29"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8924,7 +9071,7 @@
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="B222" s="29"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8957,7 +9104,7 @@
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="B223" s="29"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -8990,7 +9137,7 @@
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="29"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9023,7 +9170,7 @@
     </row>
     <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="B225" s="29"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9056,7 +9203,7 @@
     </row>
     <row r="226" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="B226" s="29"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9089,7 +9236,7 @@
     </row>
     <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="B227" s="29"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9122,7 +9269,7 @@
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="B228" s="29"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9155,7 +9302,7 @@
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-      <c r="B229" s="29"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9188,7 +9335,7 @@
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="B230" s="29"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9221,7 +9368,7 @@
     </row>
     <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="B231" s="29"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9254,7 +9401,7 @@
     </row>
     <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
-      <c r="B232" s="29"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9287,7 +9434,7 @@
     </row>
     <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-      <c r="B233" s="29"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9320,7 +9467,7 @@
     </row>
     <row r="234" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
-      <c r="B234" s="29"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9353,7 +9500,7 @@
     </row>
     <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
-      <c r="B235" s="29"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9386,7 +9533,7 @@
     </row>
     <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
-      <c r="B236" s="29"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9419,7 +9566,7 @@
     </row>
     <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-      <c r="B237" s="29"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9452,7 +9599,7 @@
     </row>
     <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-      <c r="B238" s="29"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9485,7 +9632,7 @@
     </row>
     <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-      <c r="B239" s="29"/>
+      <c r="B239" s="19"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9518,7 +9665,7 @@
     </row>
     <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-      <c r="B240" s="29"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9551,7 +9698,7 @@
     </row>
     <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="B241" s="29"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9584,7 +9731,7 @@
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="B242" s="29"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9617,7 +9764,7 @@
     </row>
     <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-      <c r="B243" s="29"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9650,7 +9797,7 @@
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="B244" s="29"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9683,7 +9830,7 @@
     </row>
     <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
-      <c r="B245" s="29"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9716,7 +9863,7 @@
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="29"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9749,7 +9896,7 @@
     </row>
     <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
-      <c r="B247" s="29"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9782,7 +9929,7 @@
     </row>
     <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
-      <c r="B248" s="29"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9815,7 +9962,7 @@
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="B249" s="29"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9848,7 +9995,7 @@
     </row>
     <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
-      <c r="B250" s="29"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -9881,7 +10028,7 @@
     </row>
     <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
-      <c r="B251" s="29"/>
+      <c r="B251" s="19"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -9914,7 +10061,7 @@
     </row>
     <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
-      <c r="B252" s="29"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -9947,7 +10094,7 @@
     </row>
     <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-      <c r="B253" s="29"/>
+      <c r="B253" s="19"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -9980,7 +10127,7 @@
     </row>
     <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
-      <c r="B254" s="29"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10013,7 +10160,7 @@
     </row>
     <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-      <c r="B255" s="29"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10046,7 +10193,7 @@
     </row>
     <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-      <c r="B256" s="29"/>
+      <c r="B256" s="19"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10079,7 +10226,7 @@
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-      <c r="B257" s="29"/>
+      <c r="B257" s="19"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10112,7 +10259,7 @@
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="B258" s="29"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10145,7 +10292,7 @@
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-      <c r="B259" s="29"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10178,7 +10325,7 @@
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
-      <c r="B260" s="29"/>
+      <c r="B260" s="19"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10211,7 +10358,7 @@
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
-      <c r="B261" s="29"/>
+      <c r="B261" s="19"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -10244,7 +10391,7 @@
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
-      <c r="B262" s="29"/>
+      <c r="B262" s="19"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10277,7 +10424,7 @@
     </row>
     <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-      <c r="B263" s="29"/>
+      <c r="B263" s="19"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10310,7 +10457,7 @@
     </row>
     <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
-      <c r="B264" s="29"/>
+      <c r="B264" s="19"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10343,7 +10490,7 @@
     </row>
     <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
-      <c r="B265" s="29"/>
+      <c r="B265" s="19"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10376,7 +10523,7 @@
     </row>
     <row r="266" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
-      <c r="B266" s="29"/>
+      <c r="B266" s="19"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10409,7 +10556,7 @@
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="B267" s="29"/>
+      <c r="B267" s="19"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10442,7 +10589,7 @@
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="B268" s="29"/>
+      <c r="B268" s="19"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10475,7 +10622,7 @@
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="B269" s="29"/>
+      <c r="B269" s="19"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10508,7 +10655,7 @@
     </row>
     <row r="270" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-      <c r="B270" s="29"/>
+      <c r="B270" s="19"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10541,7 +10688,7 @@
     </row>
     <row r="271" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
-      <c r="B271" s="29"/>
+      <c r="B271" s="19"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10574,7 +10721,7 @@
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-      <c r="B272" s="29"/>
+      <c r="B272" s="19"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10607,7 +10754,7 @@
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="B273" s="29"/>
+      <c r="B273" s="19"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10640,7 +10787,7 @@
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-      <c r="B274" s="29"/>
+      <c r="B274" s="19"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10673,7 +10820,7 @@
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-      <c r="B275" s="29"/>
+      <c r="B275" s="19"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10706,7 +10853,7 @@
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-      <c r="B276" s="29"/>
+      <c r="B276" s="19"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10739,7 +10886,7 @@
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="B277" s="29"/>
+      <c r="B277" s="19"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10772,7 +10919,7 @@
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-      <c r="B278" s="29"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -10805,7 +10952,7 @@
     </row>
     <row r="279" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-      <c r="B279" s="29"/>
+      <c r="B279" s="19"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -10838,7 +10985,7 @@
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-      <c r="B280" s="29"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -10871,7 +11018,7 @@
     </row>
     <row r="281" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
-      <c r="B281" s="29"/>
+      <c r="B281" s="19"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -10904,7 +11051,7 @@
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-      <c r="B282" s="29"/>
+      <c r="B282" s="19"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -10937,7 +11084,7 @@
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-      <c r="B283" s="29"/>
+      <c r="B283" s="19"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -10970,7 +11117,7 @@
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-      <c r="B284" s="29"/>
+      <c r="B284" s="19"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11003,7 +11150,7 @@
     </row>
     <row r="285" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-      <c r="B285" s="29"/>
+      <c r="B285" s="19"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11036,7 +11183,7 @@
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
-      <c r="B286" s="29"/>
+      <c r="B286" s="19"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11069,7 +11216,7 @@
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
-      <c r="B287" s="29"/>
+      <c r="B287" s="19"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11102,7 +11249,7 @@
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
-      <c r="B288" s="29"/>
+      <c r="B288" s="19"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11135,7 +11282,7 @@
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
-      <c r="B289" s="29"/>
+      <c r="B289" s="19"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11168,7 +11315,7 @@
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
-      <c r="B290" s="29"/>
+      <c r="B290" s="19"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11201,7 +11348,7 @@
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
-      <c r="B291" s="29"/>
+      <c r="B291" s="19"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11234,7 +11381,7 @@
     </row>
     <row r="292" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
-      <c r="B292" s="29"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11267,7 +11414,7 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
-      <c r="B293" s="29"/>
+      <c r="B293" s="19"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11300,7 +11447,7 @@
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-      <c r="B294" s="29"/>
+      <c r="B294" s="19"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11333,7 +11480,7 @@
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
-      <c r="B295" s="29"/>
+      <c r="B295" s="19"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11366,7 +11513,7 @@
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
-      <c r="B296" s="29"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11399,7 +11546,7 @@
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
-      <c r="B297" s="29"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11432,7 +11579,7 @@
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
-      <c r="B298" s="29"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11465,7 +11612,7 @@
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
-      <c r="B299" s="29"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11498,7 +11645,7 @@
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
-      <c r="B300" s="29"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -11531,7 +11678,7 @@
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
-      <c r="B301" s="29"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -11564,7 +11711,7 @@
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
-      <c r="B302" s="29"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -11597,7 +11744,7 @@
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
-      <c r="B303" s="29"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -11630,7 +11777,7 @@
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
-      <c r="B304" s="29"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -11663,7 +11810,7 @@
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
-      <c r="B305" s="29"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -11696,7 +11843,7 @@
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
-      <c r="B306" s="29"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -11729,7 +11876,7 @@
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
-      <c r="B307" s="29"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -11762,7 +11909,7 @@
     </row>
     <row r="308" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
-      <c r="B308" s="29"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -11795,7 +11942,7 @@
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
-      <c r="B309" s="29"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -11828,7 +11975,7 @@
     </row>
     <row r="310" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
-      <c r="B310" s="29"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -11861,7 +12008,7 @@
     </row>
     <row r="311" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
-      <c r="B311" s="29"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -11894,7 +12041,7 @@
     </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
-      <c r="B312" s="29"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -11927,7 +12074,7 @@
     </row>
     <row r="313" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
-      <c r="B313" s="29"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -11960,7 +12107,7 @@
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
-      <c r="B314" s="29"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -11993,7 +12140,7 @@
     </row>
     <row r="315" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
-      <c r="B315" s="29"/>
+      <c r="B315" s="19"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12026,7 +12173,7 @@
     </row>
     <row r="316" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
-      <c r="B316" s="29"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -12059,7 +12206,7 @@
     </row>
     <row r="317" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
-      <c r="B317" s="29"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12092,7 +12239,7 @@
     </row>
     <row r="318" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
-      <c r="B318" s="29"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12125,7 +12272,7 @@
     </row>
     <row r="319" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
-      <c r="B319" s="29"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -12158,7 +12305,7 @@
     </row>
     <row r="320" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
-      <c r="B320" s="29"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12191,7 +12338,7 @@
     </row>
     <row r="321" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
-      <c r="B321" s="29"/>
+      <c r="B321" s="19"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -12224,7 +12371,7 @@
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
-      <c r="B322" s="29"/>
+      <c r="B322" s="19"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -12257,7 +12404,7 @@
     </row>
     <row r="323" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
-      <c r="B323" s="29"/>
+      <c r="B323" s="19"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12290,7 +12437,7 @@
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
-      <c r="B324" s="29"/>
+      <c r="B324" s="19"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -12323,7 +12470,7 @@
     </row>
     <row r="325" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
-      <c r="B325" s="29"/>
+      <c r="B325" s="19"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -12356,7 +12503,7 @@
     </row>
     <row r="326" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
-      <c r="B326" s="29"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12389,7 +12536,7 @@
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
-      <c r="B327" s="29"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12422,7 +12569,7 @@
     </row>
     <row r="328" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
-      <c r="B328" s="29"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -12455,7 +12602,7 @@
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
-      <c r="B329" s="29"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12488,7 +12635,7 @@
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
-      <c r="B330" s="29"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -12521,7 +12668,7 @@
     </row>
     <row r="331" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
-      <c r="B331" s="29"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12554,7 +12701,7 @@
     </row>
     <row r="332" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
-      <c r="B332" s="29"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12587,7 +12734,7 @@
     </row>
     <row r="333" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
-      <c r="B333" s="29"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -12620,7 +12767,7 @@
     </row>
     <row r="334" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
-      <c r="B334" s="29"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -12653,7 +12800,7 @@
     </row>
     <row r="335" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
-      <c r="B335" s="29"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -12686,7 +12833,7 @@
     </row>
     <row r="336" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
-      <c r="B336" s="29"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -12719,7 +12866,7 @@
     </row>
     <row r="337" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
-      <c r="B337" s="29"/>
+      <c r="B337" s="19"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -12752,7 +12899,7 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
-      <c r="B338" s="29"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -12785,7 +12932,7 @@
     </row>
     <row r="339" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
-      <c r="B339" s="29"/>
+      <c r="B339" s="19"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -12818,7 +12965,7 @@
     </row>
     <row r="340" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
-      <c r="B340" s="29"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -12851,7 +12998,7 @@
     </row>
     <row r="341" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
-      <c r="B341" s="29"/>
+      <c r="B341" s="19"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -12884,7 +13031,7 @@
     </row>
     <row r="342" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
-      <c r="B342" s="29"/>
+      <c r="B342" s="19"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -12917,7 +13064,7 @@
     </row>
     <row r="343" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
-      <c r="B343" s="29"/>
+      <c r="B343" s="19"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -12950,7 +13097,7 @@
     </row>
     <row r="344" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
-      <c r="B344" s="29"/>
+      <c r="B344" s="19"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -12983,7 +13130,7 @@
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
-      <c r="B345" s="29"/>
+      <c r="B345" s="19"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -13016,7 +13163,7 @@
     </row>
     <row r="346" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
-      <c r="B346" s="29"/>
+      <c r="B346" s="19"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13049,7 +13196,7 @@
     </row>
     <row r="347" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
-      <c r="B347" s="29"/>
+      <c r="B347" s="19"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13082,7 +13229,7 @@
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
-      <c r="B348" s="29"/>
+      <c r="B348" s="19"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -13115,7 +13262,7 @@
     </row>
     <row r="349" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
-      <c r="B349" s="29"/>
+      <c r="B349" s="19"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13148,7 +13295,7 @@
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
-      <c r="B350" s="29"/>
+      <c r="B350" s="19"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -13181,7 +13328,7 @@
     </row>
     <row r="351" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
-      <c r="B351" s="29"/>
+      <c r="B351" s="19"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13214,7 +13361,7 @@
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
-      <c r="B352" s="29"/>
+      <c r="B352" s="19"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -13247,7 +13394,7 @@
     </row>
     <row r="353" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
-      <c r="B353" s="29"/>
+      <c r="B353" s="19"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13280,7 +13427,7 @@
     </row>
     <row r="354" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
-      <c r="B354" s="29"/>
+      <c r="B354" s="19"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -13313,7 +13460,7 @@
     </row>
     <row r="355" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
-      <c r="B355" s="29"/>
+      <c r="B355" s="19"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13346,7 +13493,7 @@
     </row>
     <row r="356" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
-      <c r="B356" s="29"/>
+      <c r="B356" s="19"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13379,7 +13526,7 @@
     </row>
     <row r="357" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
-      <c r="B357" s="29"/>
+      <c r="B357" s="19"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -13412,7 +13559,7 @@
     </row>
     <row r="358" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
-      <c r="B358" s="29"/>
+      <c r="B358" s="19"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -13445,7 +13592,7 @@
     </row>
     <row r="359" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
-      <c r="B359" s="29"/>
+      <c r="B359" s="19"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -13478,7 +13625,7 @@
     </row>
     <row r="360" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
-      <c r="B360" s="29"/>
+      <c r="B360" s="19"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -13511,7 +13658,7 @@
     </row>
     <row r="361" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
-      <c r="B361" s="29"/>
+      <c r="B361" s="19"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -13544,7 +13691,7 @@
     </row>
     <row r="362" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
-      <c r="B362" s="29"/>
+      <c r="B362" s="19"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -13577,7 +13724,7 @@
     </row>
     <row r="363" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
-      <c r="B363" s="29"/>
+      <c r="B363" s="19"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -13610,7 +13757,7 @@
     </row>
     <row r="364" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
-      <c r="B364" s="29"/>
+      <c r="B364" s="19"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -13641,12 +13788,210 @@
       <c r="AD364" s="3"/>
       <c r="AE364" s="3"/>
     </row>
+    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3"/>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+      <c r="P365" s="3"/>
+      <c r="Q365" s="3"/>
+      <c r="R365" s="3"/>
+      <c r="S365" s="3"/>
+      <c r="T365" s="3"/>
+      <c r="U365" s="3"/>
+      <c r="V365" s="3"/>
+      <c r="W365" s="3"/>
+      <c r="X365" s="3"/>
+      <c r="Y365" s="3"/>
+      <c r="Z365" s="3"/>
+      <c r="AA365" s="3"/>
+      <c r="AB365" s="3"/>
+      <c r="AC365" s="3"/>
+      <c r="AD365" s="3"/>
+      <c r="AE365" s="3"/>
+    </row>
+    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3"/>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
+      <c r="Y366" s="3"/>
+      <c r="Z366" s="3"/>
+      <c r="AA366" s="3"/>
+      <c r="AB366" s="3"/>
+      <c r="AC366" s="3"/>
+      <c r="AD366" s="3"/>
+      <c r="AE366" s="3"/>
+    </row>
+    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3"/>
+      <c r="J367" s="3"/>
+      <c r="K367" s="3"/>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
+      <c r="P367" s="3"/>
+      <c r="Q367" s="3"/>
+      <c r="R367" s="3"/>
+      <c r="S367" s="3"/>
+      <c r="T367" s="3"/>
+      <c r="U367" s="3"/>
+      <c r="V367" s="3"/>
+      <c r="W367" s="3"/>
+      <c r="X367" s="3"/>
+      <c r="Y367" s="3"/>
+      <c r="Z367" s="3"/>
+      <c r="AA367" s="3"/>
+      <c r="AB367" s="3"/>
+      <c r="AC367" s="3"/>
+      <c r="AD367" s="3"/>
+      <c r="AE367" s="3"/>
+    </row>
+    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+      <c r="B368" s="19"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="3"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="3"/>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
+      <c r="Y368" s="3"/>
+      <c r="Z368" s="3"/>
+      <c r="AA368" s="3"/>
+      <c r="AB368" s="3"/>
+      <c r="AC368" s="3"/>
+      <c r="AD368" s="3"/>
+      <c r="AE368" s="3"/>
+    </row>
+    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+      <c r="L369" s="3"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="3"/>
+      <c r="P369" s="3"/>
+      <c r="Q369" s="3"/>
+      <c r="R369" s="3"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3"/>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+      <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
+      <c r="Y369" s="3"/>
+      <c r="Z369" s="3"/>
+      <c r="AA369" s="3"/>
+      <c r="AB369" s="3"/>
+      <c r="AC369" s="3"/>
+      <c r="AD369" s="3"/>
+      <c r="AE369" s="3"/>
+    </row>
+    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3"/>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+    </row>
+    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+      <c r="K371" s="3"/>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A16"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13654,24 +13999,25 @@
     <hyperlink ref="G7" r:id="rId2" xr:uid="{66EB1171-42D5-40E5-9A52-78D36B6516A5}"/>
     <hyperlink ref="G8" r:id="rId3" xr:uid="{AE66B25A-40C1-4ED6-91F6-4E97F68AF44C}"/>
     <hyperlink ref="G9" r:id="rId4" xr:uid="{95301755-7C24-4C40-80C6-B40D9D80D797}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
-    <hyperlink ref="G30" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
-    <hyperlink ref="G31" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
-    <hyperlink ref="G19" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
+    <hyperlink ref="G25" r:id="rId5" xr:uid="{0ED3A998-2B4C-492C-9987-F7B37EC4F748}"/>
+    <hyperlink ref="G33" r:id="rId6" xr:uid="{DBE92592-E609-4EDF-9A34-FE320DF345A1}"/>
+    <hyperlink ref="G34" r:id="rId7" xr:uid="{8FFA29E6-25B2-4034-AD89-AAC7388CAC1F}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{C0391B8C-F6AD-4CA7-8B43-5F439863F52F}"/>
     <hyperlink ref="G12" r:id="rId9" xr:uid="{DD2417E5-0BC1-42E0-98E8-2EADCCED25F1}"/>
     <hyperlink ref="G13" r:id="rId10" xr:uid="{66D48FA4-4CD4-4AA4-912F-2B1330EFB2B6}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{DD5515A6-BA07-4ED4-9316-FC6146B1A2EC}"/>
     <hyperlink ref="G15" r:id="rId12" xr:uid="{C24AF046-6E63-4A3A-ADC3-FB3E48877A04}"/>
-    <hyperlink ref="G22" r:id="rId13" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
-    <hyperlink ref="G24" r:id="rId14" xr:uid="{2C51534F-AB87-473C-A810-A81CDE76E254}"/>
-    <hyperlink ref="G25" r:id="rId15" xr:uid="{1D443877-10E9-4F0E-A8F3-9DFD460FAF42}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{141C2258-3FF4-4F1C-A87C-30F753378EFB}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{2C51534F-AB87-473C-A810-A81CDE76E254}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{1D443877-10E9-4F0E-A8F3-9DFD460FAF42}"/>
     <hyperlink ref="G16" r:id="rId16" xr:uid="{E87523C4-2534-43F0-9A61-AC589A88EA04}"/>
     <hyperlink ref="G10" r:id="rId17" xr:uid="{F68A288F-C1A4-4C16-9422-759CC360A207}"/>
     <hyperlink ref="G11" r:id="rId18" xr:uid="{DDBAC948-13BF-424E-B8EC-C4C3F95DD8FC}"/>
-    <hyperlink ref="G26" r:id="rId19" xr:uid="{FA18D8CE-45B4-4433-9982-61A5ECBA74BB}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{A59BFE5A-72EE-4F06-B32B-94F9659F498C}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{ABFD8EB6-4935-44EE-A90D-4DACD4C9339D}"/>
-    <hyperlink ref="G29" r:id="rId22" xr:uid="{73B48DC6-B1EA-4464-81D2-BB76E2EAF83C}"/>
+    <hyperlink ref="G28" r:id="rId19" xr:uid="{FA18D8CE-45B4-4433-9982-61A5ECBA74BB}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{A59BFE5A-72EE-4F06-B32B-94F9659F498C}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{ABFD8EB6-4935-44EE-A90D-4DACD4C9339D}"/>
+    <hyperlink ref="G32" r:id="rId22" xr:uid="{73B48DC6-B1EA-4464-81D2-BB76E2EAF83C}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{68800646-B5A1-4169-B095-A60D7BBE7BBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
